--- a/Equipe201.xlsx
+++ b/Equipe201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23930"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FF4B4E54-15B4-4AFE-91B2-3101A6584D09}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ACB500E8-5F86-4B1E-8537-7BC77597A59F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="222">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -296,7 +296,7 @@
     <t>Qualité des classes</t>
   </si>
   <si>
-    <t>NV</t>
+    <t>SS</t>
   </si>
   <si>
     <t>La classe n'a qu'une responsabilitée et elle est non triviale.</t>
@@ -312,19 +312,16 @@
 Un attribut utilisé seulement dans les tests ne devrait pas exister.</t>
   </si>
   <si>
-    <t>editor.component.ts: drawingContainer n'est pas utilisé</t>
-  </si>
-  <si>
     <t>La classe minimise l'accessibilité des membres (public/private/protected)</t>
   </si>
   <si>
-    <t>editor.component.ts: drawingContainer est public. colour-palette.component.ts est public</t>
+    <t xml:space="preserve">filter-label.component.ts (filteredLabels inutile, ); ImageNavigationComponent retainedLabels doit etre private; </t>
   </si>
   <si>
     <t>Les valeurs par défaut des attributs de la classe sont initialisés de manière consistante (soit dans le constructeur partout, soit à la définition)</t>
   </si>
   <si>
-    <t>drawing.component.ts: l'attribut canvasSize n'es pas initialise comme les autres, colour-pallete.ts aussi.</t>
+    <t>handler-memento.ts (mix), filter-label.component.ts (on initialise hors contructeur) et ResizableTool (dans constructeur), ImageDetailsComponent (mix: imageContainerWidth et Height), ColourPickerService(currentColour hors constructeur et reste dans), DrawingService canvasResize hors et reste dans constructeur</t>
   </si>
   <si>
     <t>Total de la catégorie</t>
@@ -340,13 +337,16 @@
     <t xml:space="preserve">Chaque fonction n'a qu'une seule utilité, elle ne peut pas être fragmentée en plusieurs fonctions et elle est facilement lisible. </t>
   </si>
   <si>
-    <t xml:space="preserve">line-shap.ts, la fonction getFinalMousePosition est trop longue, peu visible. </t>
+    <t>line-shap.ts, la fonction getFinalMousePosition est trop longue, peu visible.  createMemento et restoreFromMemento de SelectionHandlerService. isClickOutsideSelection repete du code (coordonnee X et Y) et resizeSelection de SelectionManipulatorService. onMouseMove de PipetteService no comment</t>
   </si>
   <si>
     <t>Les fonctions minimisent les paramètres en entrée (pas plus de trois).
 Utilisation d'interfaces ou de classe pour des paramètres pouvant être regroupé logiquement.</t>
   </si>
   <si>
+    <t>moveAlongTheGrid et computeMovementAlongGrid de SelectionHelperService</t>
+  </si>
+  <si>
     <t>Les fonctions sont pures lorsque possible. Les effets secondaires sont minimisés</t>
   </si>
   <si>
@@ -365,13 +365,17 @@
     <t>Tout code asynchrone (Promise, Observable ou Event) doit être géré adéquatement.</t>
   </si>
   <si>
+    <t>votre post dans pour save drawing retourne un drawing que vous n'utilisez pas (l68 de SaveDrawingDialogComponent). await avec then dans DrawingController du serveur</t>
+  </si>
+  <si>
     <t>Variables</t>
   </si>
   <si>
     <t>Les constantes sont regroupées en groupes logiques. Des variables d'environnement sont utilisées plutôt que des constantes pour les valeurs en lien avec l'environnement de déploiement (par exemple, SERVER_URL).</t>
   </si>
   <si>
-    <t>line-shape.ts, colour-slider.component.ts les constantes sont initié dans les fontions, hors les autres sont dans des fichiers appart. Soyez uniforme.</t>
+    <t xml:space="preserve">    private readonly SNACK_BAR_DELAI: number = 6000 dans DrawingLoaderService et SNACK_BAR_DURATION: number = 6000 dans SaveDrawingDialogComponent repetition =&gt; doit etre dans un common de constantes;static readonly DEFAULT_DROP_DIAMETER: number = 5; dans SprayToolConfigurationComponent. Vous initialisez de facon differente
+</t>
   </si>
   <si>
     <t>Les constantes doivent être utilisées seulement dans un contexte lié à la logique d'affaire. (mauvais exemple: const DEUX = 2, bon exemple : const WAIT_TIME = 5000)</t>
@@ -393,22 +397,28 @@
   </si>
   <si>
     <t>Utilisation des opérateurs ternaires dans les bon scénario</t>
+  </si>
+  <si>
+    <t>L109-111 et L93-95 dans SelectionCreatorService</t>
   </si>
   <si>
     <t>Pas d'expressions booléennes complexes. 
 Des prédicats sont utilisés pour simplifier les conditions complexes</t>
   </si>
   <si>
+    <t>L102 pipette-service.ts</t>
+  </si>
+  <si>
     <t>Qualité Générale</t>
   </si>
   <si>
-    <t>AB</t>
+    <t>NV</t>
   </si>
   <si>
     <t>Le projet suit une arborescence de fichier uniforme et stucturée (regroupement par objectifs des fichiers et par module). Les fichiers et dossiers doivent respecter le kebab-case.</t>
   </si>
   <si>
-    <t>main-page-constants.ts</t>
+    <t>main-page-constants.ts (fichier vide)</t>
   </si>
   <si>
     <t>Il y a une séparation entre le code typescript, html et css.</t>
@@ -430,18 +440,27 @@
   </si>
   <si>
     <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>Beaucoup de duplication dans les fichiers du dossier renderer</t>
   </si>
   <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)
 L'utilisation raisonnable de tslint:disable est tolérée dans les fichiers spec.ts.</t>
   </si>
   <si>
+    <t xml:space="preserve">PipetteToolConfigurationComponent, </t>
+  </si>
+  <si>
     <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
   </si>
   <si>
     <t>coulour-palette.ts, rectangle.service.ts, etc.</t>
   </si>
   <si>
+    <t>addFilter de filter, DrawingCreatorService, EraserRenderer, les imbrications  ne sont pas necessaire.</t>
+  </si>
+  <si>
     <t>Le logiciel a une performance acceptable.</t>
   </si>
   <si>
@@ -452,6 +471,9 @@
   </si>
   <si>
     <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
+  </si>
+  <si>
+    <t>Pas toujours tres descriptif</t>
   </si>
   <si>
     <t>Le repo git ne contient pas de branches mortes (stale branches).</t>
@@ -464,6 +486,9 @@
 les issues sont mises à jour, etc.</t>
   </si>
   <si>
+    <t>main-page-constants inutile</t>
+  </si>
+  <si>
     <t>Le repo git ne contient que les fichiers nécessaires. (pas de dossier node_modules ou coverage. Les fichiers package-lock.json et package.json ne se retrouvent que les dossiers client et server)</t>
   </si>
   <si>
@@ -488,9 +513,6 @@
     <t>1. Quand je fais L et je le répète une seconde fois, votre ligne est inutilisable</t>
   </si>
   <si>
-    <t>SS</t>
-  </si>
-  <si>
     <t>Point d'entrée dans l'application</t>
   </si>
   <si>
@@ -548,24 +570,39 @@
     <t>Ne build pas</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
     <t>Outil - Aérosol</t>
   </si>
   <si>
     <t>Outil- Sélection par rectangle et ellipse</t>
   </si>
   <si>
+    <t>UX: pour le bouton "Select all", placez près des boutons de sélection
+1. Le rectangle et l'ellipse de sélection résultent en une boîte englobante seulement à la fin du glisser-déposer.</t>
+  </si>
+  <si>
     <t>Outil-Polygone</t>
   </si>
   <si>
     <t>Outi-Pipette</t>
   </si>
   <si>
+    <t>1.  Si le pointeur se retrouve hors de la surface de dessin, le cercle de prévisualisation n’est pas affiché. 
+2. Mini bug? Lorsque je sélectionne l'outil, la zone à l'extérieur du cercle (et donc à l'intérieur du carré) reste figée sur la première couleur détectée par la pipette</t>
+  </si>
+  <si>
     <t>Exporter le dessin</t>
   </si>
   <si>
     <t>Déplacement d'une sélection</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Lorsque la sélection est en cours et que le dessin est abandonné, la zone sélectionnée persiste
+</t>
+  </si>
+  <si>
     <t>Filtrage par étiquettes</t>
   </si>
   <si>
@@ -576,6 +613,9 @@
   </si>
   <si>
     <t>Sauvegarder le dessin sur serveur</t>
+  </si>
+  <si>
+    <t>UX: lorsque l'utilisateur écrit un tag, s'il quitte la zone du tag, le tag devrait être ajouté à la liste sans avoir à appuyer sur enter</t>
   </si>
   <si>
     <t>Annuler-Refaire</t>
@@ -690,7 +730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -787,6 +827,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="21">
@@ -2225,7 +2270,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2763,9 +2808,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2930,6 +2972,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2949,7 +3000,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2958,24 +3027,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3860,18 +3911,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="287" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="286" t="s">
+      <c r="D2" s="287"/>
+      <c r="E2" s="288" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="287" t="s">
+      <c r="F2" s="288"/>
+      <c r="G2" s="289" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="287"/>
+      <c r="H2" s="289"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -4151,7 +4202,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="288" t="s">
+      <c r="G2" s="290" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4164,7 +4215,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="288"/>
+      <c r="G3" s="290"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="58" t="s">
@@ -4486,10 +4537,10 @@
       <c r="D27" s="162"/>
       <c r="E27" s="162"/>
       <c r="F27" s="162"/>
-      <c r="H27" s="289" t="s">
+      <c r="H27" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="289"/>
+      <c r="I27" s="291"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="52" t="s">
@@ -4842,7 +4893,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="288" t="s">
+      <c r="G2" s="290" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4855,7 +4906,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="288"/>
+      <c r="G3" s="290"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
@@ -5229,10 +5280,10 @@
       <c r="D31" s="162"/>
       <c r="E31" s="162"/>
       <c r="F31" s="162"/>
-      <c r="H31" s="289" t="s">
+      <c r="H31" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="289"/>
+      <c r="I31" s="291"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
@@ -5600,18 +5651,18 @@
       </c>
       <c r="C4" s="149">
         <f>'Assurance Qualité'!B60</f>
-        <v>0.84250000000000003</v>
+        <v>0.8175</v>
       </c>
       <c r="D4" s="149">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
-        <v>0.87674873949579823</v>
+        <v>0.86674873949579823</v>
       </c>
       <c r="F4" s="150">
         <v>15</v>
       </c>
       <c r="G4" s="151">
         <f>D4*F4</f>
-        <v>13.151231092436973</v>
+        <v>13.001231092436974</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5620,22 +5671,22 @@
       </c>
       <c r="B5" s="153">
         <f>(Fonctionnalités!E35)</f>
-        <v>0</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="C5" s="154">
         <f>'Assurance Qualité'!D60</f>
-        <v>0</v>
+        <v>0.73250000000000004</v>
       </c>
       <c r="D5" s="154">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="F5" s="150">
         <v>25</v>
       </c>
       <c r="G5" s="151">
         <f>D5*F5</f>
-        <v>0</v>
+        <v>21.515000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
@@ -5687,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5696,21 +5747,21 @@
     <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="54" customWidth="1"/>
+    <col min="10" max="10" width="57.140625" customWidth="1"/>
     <col min="11" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="292" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
       <c r="H1" s="161"/>
       <c r="I1" s="161"/>
     </row>
@@ -5719,15 +5770,15 @@
       <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="293" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293"/>
       <c r="H3" s="163"/>
       <c r="I3" s="163"/>
     </row>
@@ -5743,31 +5794,31 @@
       <c r="I4" s="165"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="298" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="298"/>
-      <c r="F5" s="299" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="299"/>
+      <c r="B5" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="295"/>
+      <c r="D5" s="296" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="296"/>
+      <c r="F5" s="297" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="297"/>
       <c r="H5" s="166"/>
       <c r="I5" s="166"/>
-      <c r="J5" s="294" t="s">
+      <c r="J5" s="298" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="296"/>
+      <c r="A6" s="294"/>
       <c r="B6" s="167" t="s">
         <v>48</v>
       </c>
@@ -5800,15 +5851,15 @@
       <c r="M6" s="173"/>
     </row>
     <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A7" s="290" t="s">
+      <c r="A7" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="290"/>
-      <c r="C7" s="290"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="293"/>
       <c r="H7" s="163" t="s">
         <v>84</v>
       </c>
@@ -5824,7 +5875,9 @@
       <c r="C8" s="176">
         <v>3</v>
       </c>
-      <c r="D8" s="177"/>
+      <c r="D8" s="177">
+        <v>1</v>
+      </c>
       <c r="E8" s="176">
         <v>3</v>
       </c>
@@ -5845,7 +5898,9 @@
       <c r="C9" s="181">
         <v>2</v>
       </c>
-      <c r="D9" s="182"/>
+      <c r="D9" s="182">
+        <v>1</v>
+      </c>
       <c r="E9" s="181">
         <v>2</v>
       </c>
@@ -5866,7 +5921,9 @@
       <c r="C10" s="181">
         <v>3</v>
       </c>
-      <c r="D10" s="182"/>
+      <c r="D10" s="182">
+        <v>1</v>
+      </c>
       <c r="E10" s="181">
         <v>3</v>
       </c>
@@ -5876,13 +5933,10 @@
       </c>
       <c r="H10" s="179"/>
       <c r="I10" s="179"/>
-      <c r="J10" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="185" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="180">
         <v>0</v>
@@ -5890,7 +5944,9 @@
       <c r="C11" s="181">
         <v>2</v>
       </c>
-      <c r="D11" s="182"/>
+      <c r="D11" s="182">
+        <v>0</v>
+      </c>
       <c r="E11" s="181">
         <v>2</v>
       </c>
@@ -5900,13 +5956,13 @@
       </c>
       <c r="H11" s="179"/>
       <c r="I11" s="179"/>
-      <c r="J11" t="s">
-        <v>90</v>
+      <c r="K11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="186" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="180">
         <v>0</v>
@@ -5914,7 +5970,9 @@
       <c r="C12" s="181">
         <v>4</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="182">
+        <v>0</v>
+      </c>
       <c r="E12" s="181">
         <v>4</v>
       </c>
@@ -5924,13 +5982,13 @@
       </c>
       <c r="H12" s="179"/>
       <c r="I12" s="179"/>
-      <c r="J12" t="s">
-        <v>92</v>
+      <c r="K12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="187" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="188">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
@@ -5942,7 +6000,7 @@
       </c>
       <c r="D13" s="190">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13" s="191">
         <f>SUM(E8:E12)</f>
@@ -5960,15 +6018,15 @@
       <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A14" s="290" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="290"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
+      <c r="A14" s="293" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="293"/>
+      <c r="C14" s="293"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="293"/>
+      <c r="G14" s="293"/>
       <c r="H14" s="163" t="s">
         <v>84</v>
       </c>
@@ -5976,7 +6034,7 @@
     </row>
     <row r="15" spans="1:13" ht="45">
       <c r="A15" s="184" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="194">
         <v>1</v>
@@ -5984,7 +6042,9 @@
       <c r="C15" s="195">
         <v>2</v>
       </c>
-      <c r="D15" s="196"/>
+      <c r="D15" s="196">
+        <v>1</v>
+      </c>
       <c r="E15" s="195">
         <v>2</v>
       </c>
@@ -5997,7 +6057,7 @@
     </row>
     <row r="16" spans="1:13" ht="30">
       <c r="A16" s="184" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="199">
         <v>0.75</v>
@@ -6005,7 +6065,9 @@
       <c r="C16" s="200">
         <v>3</v>
       </c>
-      <c r="D16" s="201"/>
+      <c r="D16" s="201">
+        <v>0</v>
+      </c>
       <c r="E16" s="200">
         <v>3</v>
       </c>
@@ -6015,21 +6077,23 @@
       </c>
       <c r="H16" s="198"/>
       <c r="I16" s="179"/>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45">
+      <c r="A17" s="203" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="45">
-      <c r="A17" s="203" t="s">
-        <v>98</v>
-      </c>
       <c r="B17" s="180">
         <v>1</v>
       </c>
       <c r="C17" s="200">
         <v>3</v>
       </c>
-      <c r="D17" s="204"/>
+      <c r="D17" s="204">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="200">
         <v>3</v>
       </c>
@@ -6039,8 +6103,11 @@
       </c>
       <c r="H17" s="198"/>
       <c r="I17" s="179"/>
-    </row>
-    <row r="18" spans="1:10" ht="30">
+      <c r="K17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="203" t="s">
         <v>99</v>
       </c>
@@ -6050,7 +6117,9 @@
       <c r="C18" s="200">
         <v>3</v>
       </c>
-      <c r="D18" s="204"/>
+      <c r="D18" s="204">
+        <v>1</v>
+      </c>
       <c r="E18" s="200">
         <v>3</v>
       </c>
@@ -6061,7 +6130,7 @@
       <c r="H18" s="198"/>
       <c r="I18" s="179"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="206" t="s">
         <v>100</v>
       </c>
@@ -6071,7 +6140,9 @@
       <c r="C19" s="200">
         <v>2</v>
       </c>
-      <c r="D19" s="208"/>
+      <c r="D19" s="208">
+        <v>1</v>
+      </c>
       <c r="E19" s="200">
         <v>2</v>
       </c>
@@ -6082,9 +6153,9 @@
       <c r="H19" s="198"/>
       <c r="I19" s="179"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="209" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="188">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
@@ -6096,7 +6167,7 @@
       </c>
       <c r="D20" s="210">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E20" s="211">
         <f>SUM(E15:E19)</f>
@@ -6113,22 +6184,22 @@
       <c r="H20" s="198"/>
       <c r="I20" s="179"/>
     </row>
-    <row r="21" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="290" t="s">
+    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A21" s="293" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="290"/>
-      <c r="C21" s="290"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="290"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
       <c r="H21" s="163" t="s">
         <v>84</v>
       </c>
       <c r="I21" s="163"/>
     </row>
-    <row r="22" spans="1:10" ht="75">
+    <row r="22" spans="1:11" ht="75">
       <c r="A22" s="185" t="s">
         <v>102</v>
       </c>
@@ -6138,7 +6209,9 @@
       <c r="C22" s="200">
         <v>2</v>
       </c>
-      <c r="D22" s="182"/>
+      <c r="D22" s="182">
+        <v>1</v>
+      </c>
       <c r="E22" s="200">
         <v>2</v>
       </c>
@@ -6149,7 +6222,7 @@
       <c r="H22" s="198"/>
       <c r="I22" s="179"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="186" t="s">
         <v>103</v>
       </c>
@@ -6159,7 +6232,9 @@
       <c r="C23" s="181">
         <v>1</v>
       </c>
-      <c r="D23" s="182"/>
+      <c r="D23" s="182">
+        <v>1</v>
+      </c>
       <c r="E23" s="181">
         <v>1</v>
       </c>
@@ -6170,7 +6245,7 @@
       <c r="H23" s="198"/>
       <c r="I23" s="179"/>
     </row>
-    <row r="24" spans="1:10" ht="30">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="186" t="s">
         <v>104</v>
       </c>
@@ -6180,7 +6255,9 @@
       <c r="C24" s="181">
         <v>1</v>
       </c>
-      <c r="D24" s="182"/>
+      <c r="D24" s="182">
+        <v>0</v>
+      </c>
       <c r="E24" s="181">
         <v>1</v>
       </c>
@@ -6190,10 +6267,13 @@
       </c>
       <c r="H24" s="198"/>
       <c r="I24" s="179"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="187" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="188">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
@@ -6205,7 +6285,7 @@
       </c>
       <c r="D25" s="190">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="191">
         <f>SUM(E22:E24)</f>
@@ -6222,24 +6302,24 @@
       <c r="H25" s="198"/>
       <c r="I25" s="179"/>
     </row>
-    <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="290" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="290"/>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="290"/>
+    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A26" s="293" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="293"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
+      <c r="E26" s="293"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="293"/>
       <c r="H26" s="163" t="s">
         <v>84</v>
       </c>
       <c r="I26" s="163"/>
     </row>
-    <row r="27" spans="1:10" ht="60">
+    <row r="27" spans="1:11" ht="409.6">
       <c r="A27" s="206" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="213">
         <v>0</v>
@@ -6247,7 +6327,9 @@
       <c r="C27" s="214">
         <v>2</v>
       </c>
-      <c r="D27" s="204"/>
+      <c r="D27" s="204">
+        <v>0.5</v>
+      </c>
       <c r="E27" s="214">
         <v>2</v>
       </c>
@@ -6257,13 +6339,13 @@
       </c>
       <c r="H27" s="198"/>
       <c r="I27" s="179"/>
-      <c r="J27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45">
+      <c r="K27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45">
       <c r="A28" s="206" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="180">
         <v>1</v>
@@ -6271,7 +6353,9 @@
       <c r="C28" s="181">
         <v>2</v>
       </c>
-      <c r="D28" s="204"/>
+      <c r="D28" s="204">
+        <v>1</v>
+      </c>
       <c r="E28" s="181">
         <v>2</v>
       </c>
@@ -6282,9 +6366,9 @@
       <c r="H28" s="198"/>
       <c r="I28" s="179"/>
     </row>
-    <row r="29" spans="1:10" ht="30">
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="206" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="180">
         <v>1</v>
@@ -6292,7 +6376,9 @@
       <c r="C29" s="181">
         <v>2</v>
       </c>
-      <c r="D29" s="204"/>
+      <c r="D29" s="204">
+        <v>1</v>
+      </c>
       <c r="E29" s="181">
         <v>2</v>
       </c>
@@ -6303,9 +6389,9 @@
       <c r="H29" s="198"/>
       <c r="I29" s="179"/>
     </row>
-    <row r="30" spans="1:10" ht="75">
+    <row r="30" spans="1:11" ht="75">
       <c r="A30" s="206" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30" s="180">
         <v>1</v>
@@ -6313,7 +6399,9 @@
       <c r="C30" s="181">
         <v>3</v>
       </c>
-      <c r="D30" s="204"/>
+      <c r="D30" s="204">
+        <v>1</v>
+      </c>
       <c r="E30" s="181">
         <v>3</v>
       </c>
@@ -6324,9 +6412,9 @@
       <c r="H30" s="198"/>
       <c r="I30" s="179"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="209" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="188">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
@@ -6338,7 +6426,7 @@
       </c>
       <c r="D31" s="210">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E31" s="191">
         <f>SUM(E27:E30)</f>
@@ -6355,24 +6443,24 @@
       <c r="H31" s="198"/>
       <c r="I31" s="179"/>
     </row>
-    <row r="32" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A32" s="290" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="290"/>
-      <c r="C32" s="290"/>
-      <c r="D32" s="290"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="290"/>
+    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A32" s="293" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="293"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="293"/>
       <c r="H32" s="163" t="s">
         <v>84</v>
       </c>
       <c r="I32" s="163"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="184" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B33" s="213">
         <v>1</v>
@@ -6380,7 +6468,9 @@
       <c r="C33" s="214">
         <v>1</v>
       </c>
-      <c r="D33" s="216"/>
+      <c r="D33" s="216">
+        <v>1</v>
+      </c>
       <c r="E33" s="214">
         <v>1</v>
       </c>
@@ -6391,9 +6481,9 @@
       <c r="H33" s="198"/>
       <c r="I33" s="179"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" s="184" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" s="180">
         <v>1</v>
@@ -6401,7 +6491,9 @@
       <c r="C34" s="200">
         <v>1</v>
       </c>
-      <c r="D34" s="204"/>
+      <c r="D34" s="204">
+        <v>1</v>
+      </c>
       <c r="E34" s="200">
         <v>1</v>
       </c>
@@ -6412,9 +6504,9 @@
       <c r="H34" s="198"/>
       <c r="I34" s="179"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" s="203" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B35" s="180">
         <v>1</v>
@@ -6422,7 +6514,9 @@
       <c r="C35" s="200">
         <v>3</v>
       </c>
-      <c r="D35" s="204"/>
+      <c r="D35" s="204">
+        <v>0.5</v>
+      </c>
       <c r="E35" s="200">
         <v>3</v>
       </c>
@@ -6432,10 +6526,13 @@
       </c>
       <c r="H35" s="198"/>
       <c r="I35" s="179"/>
-    </row>
-    <row r="36" spans="1:10" ht="30">
+      <c r="K35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="206" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B36" s="180">
         <v>1</v>
@@ -6443,7 +6540,9 @@
       <c r="C36" s="181">
         <v>3</v>
       </c>
-      <c r="D36" s="204"/>
+      <c r="D36" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E36" s="181">
         <v>3</v>
       </c>
@@ -6453,10 +6552,13 @@
       </c>
       <c r="H36" s="179"/>
       <c r="I36" s="179"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="209" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="219">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
@@ -6468,7 +6570,7 @@
       </c>
       <c r="D37" s="220">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="E37" s="191">
         <f>SUM(E33:E36)</f>
@@ -6485,24 +6587,24 @@
       <c r="H37" s="198"/>
       <c r="I37" s="179"/>
     </row>
-    <row r="38" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A38" s="290" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="290"/>
-      <c r="C38" s="290"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="290"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="290"/>
+    <row r="38" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A38" s="293" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="293"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
+      <c r="G38" s="293"/>
       <c r="H38" s="163" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I38" s="163"/>
     </row>
-    <row r="39" spans="1:10" ht="45">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="203" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B39" s="213">
         <v>0.75</v>
@@ -6510,7 +6612,9 @@
       <c r="C39" s="195">
         <v>1</v>
       </c>
-      <c r="D39" s="204"/>
+      <c r="D39" s="204">
+        <v>1</v>
+      </c>
       <c r="E39" s="195">
         <v>1</v>
       </c>
@@ -6520,13 +6624,13 @@
       </c>
       <c r="H39" s="179"/>
       <c r="I39" s="179"/>
-      <c r="J39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="203" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B40" s="180">
         <v>1</v>
@@ -6534,7 +6638,9 @@
       <c r="C40" s="200">
         <v>4</v>
       </c>
-      <c r="D40" s="204"/>
+      <c r="D40" s="204">
+        <v>1</v>
+      </c>
       <c r="E40" s="200">
         <v>4</v>
       </c>
@@ -6545,9 +6651,9 @@
       <c r="H40" s="179"/>
       <c r="I40" s="179"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="203" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B41" s="180">
         <v>1</v>
@@ -6555,7 +6661,9 @@
       <c r="C41" s="200">
         <v>3</v>
       </c>
-      <c r="D41" s="204"/>
+      <c r="D41" s="204">
+        <v>1</v>
+      </c>
       <c r="E41" s="200">
         <v>3</v>
       </c>
@@ -6566,9 +6674,9 @@
       <c r="H41" s="179"/>
       <c r="I41" s="179"/>
     </row>
-    <row r="42" spans="1:10" ht="60">
+    <row r="42" spans="1:11" ht="60">
       <c r="A42" s="203" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B42" s="180">
         <v>1</v>
@@ -6576,7 +6684,9 @@
       <c r="C42" s="200">
         <v>2</v>
       </c>
-      <c r="D42" s="204"/>
+      <c r="D42" s="204">
+        <v>1</v>
+      </c>
       <c r="E42" s="200">
         <v>2</v>
       </c>
@@ -6586,9 +6696,9 @@
       </c>
       <c r="H42" s="179"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="203" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B43" s="180">
         <v>1</v>
@@ -6596,7 +6706,9 @@
       <c r="C43" s="200">
         <v>2</v>
       </c>
-      <c r="D43" s="204"/>
+      <c r="D43" s="204">
+        <v>1</v>
+      </c>
       <c r="E43" s="200">
         <v>2</v>
       </c>
@@ -6607,9 +6719,9 @@
       <c r="H43" s="179"/>
       <c r="I43" s="179"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="203" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B44" s="180">
         <v>1</v>
@@ -6617,7 +6729,9 @@
       <c r="C44" s="200">
         <v>3</v>
       </c>
-      <c r="D44" s="204"/>
+      <c r="D44" s="204">
+        <v>1</v>
+      </c>
       <c r="E44" s="200">
         <v>3</v>
       </c>
@@ -6628,9 +6742,9 @@
       <c r="H44" s="179"/>
       <c r="I44" s="179"/>
     </row>
-    <row r="45" spans="1:10" ht="30">
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="203" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B45" s="180">
         <v>1</v>
@@ -6638,7 +6752,9 @@
       <c r="C45" s="200">
         <v>3</v>
       </c>
-      <c r="D45" s="204"/>
+      <c r="D45" s="204">
+        <v>1</v>
+      </c>
       <c r="E45" s="200">
         <v>3</v>
       </c>
@@ -6649,9 +6765,9 @@
       <c r="H45" s="179"/>
       <c r="I45" s="179"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="203" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B46" s="180">
         <v>1</v>
@@ -6659,7 +6775,9 @@
       <c r="C46" s="200">
         <v>4</v>
       </c>
-      <c r="D46" s="204"/>
+      <c r="D46" s="204">
+        <v>0</v>
+      </c>
       <c r="E46" s="200">
         <v>4</v>
       </c>
@@ -6669,18 +6787,23 @@
       </c>
       <c r="H46" s="179"/>
       <c r="I46" s="179"/>
-    </row>
-    <row r="47" spans="1:10" ht="60">
+      <c r="K46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60">
       <c r="A47" s="206" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="283">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="B47" s="282">
+        <v>0.75</v>
       </c>
       <c r="C47" s="181">
         <v>10</v>
       </c>
-      <c r="D47" s="204"/>
+      <c r="D47" s="204">
+        <v>1</v>
+      </c>
       <c r="E47" s="181">
         <v>10</v>
       </c>
@@ -6690,10 +6813,13 @@
       </c>
       <c r="H47" s="179"/>
       <c r="I47" s="179"/>
-    </row>
-    <row r="48" spans="1:10" ht="30">
+      <c r="K47" s="283" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="206" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B48" s="180">
         <v>0</v>
@@ -6701,7 +6827,9 @@
       <c r="C48" s="181">
         <v>6</v>
       </c>
-      <c r="D48" s="204"/>
+      <c r="D48" s="204">
+        <v>0</v>
+      </c>
       <c r="E48" s="181">
         <v>6</v>
       </c>
@@ -6712,12 +6840,15 @@
       <c r="H48" s="179"/>
       <c r="I48" s="179"/>
       <c r="J48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="K48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="206" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B49" s="180">
         <v>1</v>
@@ -6725,7 +6856,9 @@
       <c r="C49" s="181">
         <v>3</v>
       </c>
-      <c r="D49" s="204"/>
+      <c r="D49" s="204">
+        <v>1</v>
+      </c>
       <c r="E49" s="181">
         <v>3</v>
       </c>
@@ -6736,13 +6869,13 @@
       <c r="H49" s="179"/>
       <c r="I49" s="179"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50" s="209" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="219">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
-        <v>34.75</v>
+        <v>32.25</v>
       </c>
       <c r="C50" s="189">
         <f>SUM(C39:C49)</f>
@@ -6750,7 +6883,7 @@
       </c>
       <c r="D50" s="220">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E50" s="191">
         <f>SUM(E39:E49)</f>
@@ -6767,24 +6900,24 @@
       <c r="H50" s="198"/>
       <c r="I50" s="179"/>
     </row>
-    <row r="51" spans="1:9" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="290" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="290"/>
-      <c r="C51" s="290"/>
-      <c r="D51" s="290"/>
-      <c r="E51" s="290"/>
-      <c r="F51" s="290"/>
-      <c r="G51" s="290"/>
+    <row r="51" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A51" s="293" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="293"/>
+      <c r="C51" s="293"/>
+      <c r="D51" s="293"/>
+      <c r="E51" s="293"/>
+      <c r="F51" s="293"/>
+      <c r="G51" s="293"/>
       <c r="H51" s="163" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I51" s="163"/>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:11" ht="30">
       <c r="A52" s="221" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B52" s="213">
         <v>1</v>
@@ -6792,7 +6925,9 @@
       <c r="C52" s="222">
         <v>2</v>
       </c>
-      <c r="D52" s="223"/>
+      <c r="D52" s="223">
+        <v>1</v>
+      </c>
       <c r="E52" s="222">
         <v>2</v>
       </c>
@@ -6803,9 +6938,9 @@
       <c r="H52" s="198"/>
       <c r="I52" s="179"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:11" ht="30">
       <c r="A53" s="186" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B53" s="224">
         <v>1</v>
@@ -6813,7 +6948,9 @@
       <c r="C53" s="181">
         <v>2</v>
       </c>
-      <c r="D53" s="225"/>
+      <c r="D53" s="225">
+        <v>0.5</v>
+      </c>
       <c r="E53" s="181">
         <v>2</v>
       </c>
@@ -6823,10 +6960,13 @@
       </c>
       <c r="H53" s="179"/>
       <c r="I53" s="179"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="K53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="186" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B54" s="226">
         <v>1</v>
@@ -6834,7 +6974,9 @@
       <c r="C54" s="181">
         <v>1</v>
       </c>
-      <c r="D54" s="204"/>
+      <c r="D54" s="204">
+        <v>0</v>
+      </c>
       <c r="E54" s="181">
         <v>1</v>
       </c>
@@ -6845,9 +6987,9 @@
       <c r="H54" s="179"/>
       <c r="I54" s="179"/>
     </row>
-    <row r="55" spans="1:9" ht="120">
+    <row r="55" spans="1:11" ht="120">
       <c r="A55" s="186" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B55" s="226">
         <v>1</v>
@@ -6855,7 +6997,9 @@
       <c r="C55" s="181">
         <v>4</v>
       </c>
-      <c r="D55" s="204"/>
+      <c r="D55" s="204">
+        <v>1</v>
+      </c>
       <c r="E55" s="181">
         <v>4</v>
       </c>
@@ -6865,31 +7009,36 @@
       </c>
       <c r="H55" s="179"/>
       <c r="I55" s="179"/>
-    </row>
-    <row r="56" spans="1:9" ht="45">
+      <c r="K55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="45">
       <c r="A56" s="185" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="283">
+        <v>144</v>
+      </c>
+      <c r="B56" s="282">
         <v>1</v>
       </c>
       <c r="C56" s="200">
         <v>2</v>
       </c>
-      <c r="D56" s="227"/>
+      <c r="D56" s="284">
+        <v>1</v>
+      </c>
       <c r="E56" s="200">
         <v>2</v>
       </c>
-      <c r="F56" s="228"/>
+      <c r="F56" s="227"/>
       <c r="G56" s="200">
         <v>2</v>
       </c>
-      <c r="H56" s="229"/>
+      <c r="H56" s="228"/>
       <c r="I56" s="179"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="230" t="s">
-        <v>93</v>
+    <row r="57" spans="1:11">
+      <c r="A57" s="229" t="s">
+        <v>92</v>
       </c>
       <c r="B57" s="188">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
@@ -6901,102 +7050,91 @@
       </c>
       <c r="D57" s="190">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E57" s="191">
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="231">
+      <c r="F57" s="230">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="232">
+      <c r="G57" s="231">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
       <c r="H57" s="179"/>
       <c r="I57" s="179"/>
     </row>
-    <row r="58" spans="1:9" ht="18.399999999999999" customHeight="1">
-      <c r="A58" s="290" t="s">
+    <row r="58" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A58" s="293" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="290"/>
-      <c r="C58" s="290"/>
-      <c r="D58" s="290"/>
-      <c r="E58" s="290"/>
-      <c r="F58" s="290"/>
-      <c r="G58" s="290"/>
+      <c r="B58" s="293"/>
+      <c r="C58" s="293"/>
+      <c r="D58" s="293"/>
+      <c r="E58" s="293"/>
+      <c r="F58" s="293"/>
+      <c r="G58" s="293"/>
       <c r="H58" s="163"/>
       <c r="I58" s="163"/>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="233" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="234">
+    <row r="59" spans="1:11">
+      <c r="A59" s="232" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="233">
         <f t="shared" ref="B59:G59" si="0">B13+B20+B25+B31+B37+B50+B57</f>
-        <v>84.25</v>
+        <v>81.75</v>
       </c>
       <c r="C59" s="195">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D59" s="235">
+      <c r="D59" s="234">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="236">
+        <v>73.25</v>
+      </c>
+      <c r="E59" s="235">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F59" s="237">
+      <c r="F59" s="236">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="238">
+      <c r="G59" s="237">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H59" s="229"/>
+      <c r="H59" s="228"/>
       <c r="I59" s="179"/>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="233" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="291">
+    <row r="60" spans="1:11">
+      <c r="A60" s="232" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="299">
         <f>B59/C59</f>
-        <v>0.84250000000000003</v>
-      </c>
-      <c r="C60" s="291"/>
-      <c r="D60" s="292">
+        <v>0.8175</v>
+      </c>
+      <c r="C60" s="299"/>
+      <c r="D60" s="300">
         <f>D59/E59</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="292"/>
-      <c r="F60" s="293">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="E60" s="300"/>
+      <c r="F60" s="301">
         <f>F59/G59</f>
         <v>0</v>
       </c>
-      <c r="G60" s="293"/>
-      <c r="H60" s="239"/>
-      <c r="I60" s="239"/>
+      <c r="G60" s="301"/>
+      <c r="H60" s="238"/>
+      <c r="I60" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A51:G51"/>
@@ -7004,6 +7142,17 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="F60:G60"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H20 H25 H31 H37 H50" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -7024,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7038,829 +7187,884 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="306" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="144"/>
       <c r="B2" s="144"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="144"/>
-      <c r="F2" s="240"/>
+      <c r="F2" s="239"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
     </row>
     <row r="5" spans="1:7" ht="23.25">
-      <c r="A5" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="305"/>
-      <c r="C5" s="305"/>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
+      <c r="A5" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="307"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="307"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="306"/>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
+      <c r="B6" s="308"/>
+      <c r="C6" s="308"/>
+      <c r="D6" s="308"/>
+      <c r="E6" s="308"/>
+      <c r="F6" s="308"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="242" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="243" t="s">
+      <c r="A7" s="241" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="243" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="243" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="243" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="244" t="s">
+      <c r="C7" s="242" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="242" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="242" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="243" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="90">
-      <c r="A8" s="245" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="246">
+    <row r="8" spans="1:7">
+      <c r="A8" s="244" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="245">
         <f>20/21</f>
         <v>0.95238095238095233</v>
       </c>
-      <c r="C8" s="246">
-        <v>1</v>
-      </c>
-      <c r="D8" s="246">
+      <c r="C8" s="245">
+        <v>1</v>
+      </c>
+      <c r="D8" s="245">
         <v>16</v>
       </c>
-      <c r="E8" s="246">
+      <c r="E8" s="245">
         <f t="shared" ref="E8:E17" si="0">B8*C8*D8</f>
         <v>15.238095238095237</v>
       </c>
-      <c r="F8" s="247" t="s">
-        <v>143</v>
+      <c r="F8" s="246" t="s">
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="245" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="246">
+      <c r="A9" s="244" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="245">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C9" s="246">
-        <v>1</v>
-      </c>
-      <c r="D9" s="246">
+      <c r="C9" s="245">
+        <v>1</v>
+      </c>
+      <c r="D9" s="245">
         <v>8</v>
       </c>
-      <c r="E9" s="246">
+      <c r="E9" s="245">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="248"/>
+      <c r="F9" s="247"/>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="245" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="246">
+      <c r="A10" s="244" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="245">
         <v>0.9</v>
       </c>
-      <c r="C10" s="246">
-        <v>1</v>
-      </c>
-      <c r="D10" s="246">
+      <c r="C10" s="245">
+        <v>1</v>
+      </c>
+      <c r="D10" s="245">
         <v>14</v>
       </c>
-      <c r="E10" s="246">
+      <c r="E10" s="245">
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="F10" s="248" t="s">
-        <v>147</v>
+      <c r="F10" s="247" t="s">
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="245" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="246">
+      <c r="A11" s="244" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="245">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C11" s="246">
-        <v>1</v>
-      </c>
-      <c r="D11" s="246">
+      <c r="C11" s="245">
+        <v>1</v>
+      </c>
+      <c r="D11" s="245">
         <v>12</v>
       </c>
-      <c r="E11" s="246">
+      <c r="E11" s="245">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F11" s="248" t="s">
-        <v>149</v>
+      <c r="F11" s="247" t="s">
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="375">
-      <c r="A12" s="245" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="246">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="244" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="245">
         <f>5.5/7</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="C12" s="246">
-        <v>1</v>
-      </c>
-      <c r="D12" s="246">
+      <c r="C12" s="245">
+        <v>1</v>
+      </c>
+      <c r="D12" s="245">
         <v>8</v>
       </c>
-      <c r="E12" s="246">
+      <c r="E12" s="245">
         <f t="shared" si="0"/>
         <v>6.2857142857142856</v>
       </c>
-      <c r="F12" s="247" t="s">
-        <v>151</v>
+      <c r="F12" s="246" t="s">
+        <v>158</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="195">
-      <c r="A13" s="245" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="246">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="244" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="245">
         <f>9/10</f>
         <v>0.9</v>
       </c>
-      <c r="C13" s="246">
-        <v>1</v>
-      </c>
-      <c r="D13" s="246">
+      <c r="C13" s="245">
+        <v>1</v>
+      </c>
+      <c r="D13" s="245">
         <v>10</v>
       </c>
-      <c r="E13" s="246">
+      <c r="E13" s="245">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F13" s="247" t="s">
-        <v>153</v>
+      <c r="F13" s="246" t="s">
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="375">
-      <c r="A14" s="245" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="246">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="244" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="245">
         <f>15.5/17</f>
         <v>0.91176470588235292</v>
       </c>
-      <c r="C14" s="246">
-        <v>1</v>
-      </c>
-      <c r="D14" s="246">
+      <c r="C14" s="245">
+        <v>1</v>
+      </c>
+      <c r="D14" s="245">
         <v>10</v>
       </c>
-      <c r="E14" s="246">
+      <c r="E14" s="245">
         <f t="shared" si="0"/>
         <v>9.117647058823529</v>
       </c>
-      <c r="F14" s="247" t="s">
-        <v>155</v>
+      <c r="F14" s="246" t="s">
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="255">
-      <c r="A15" s="245" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="246">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="244" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="245">
         <f>14/15</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="C15" s="246">
-        <v>1</v>
-      </c>
-      <c r="D15" s="246">
+      <c r="C15" s="245">
+        <v>1</v>
+      </c>
+      <c r="D15" s="245">
         <v>8</v>
       </c>
-      <c r="E15" s="246">
+      <c r="E15" s="245">
         <f t="shared" si="0"/>
         <v>7.4666666666666668</v>
       </c>
-      <c r="F15" s="247" t="s">
-        <v>157</v>
+      <c r="F15" s="246" t="s">
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="245" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="246">
+      <c r="A16" s="244" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="245">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C16" s="246">
-        <v>1</v>
-      </c>
-      <c r="D16" s="246">
+      <c r="C16" s="245">
+        <v>1</v>
+      </c>
+      <c r="D16" s="245">
         <v>8</v>
       </c>
-      <c r="E16" s="246">
+      <c r="E16" s="245">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F16" s="247"/>
+      <c r="F16" s="246"/>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="245" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="246">
-        <v>1</v>
-      </c>
-      <c r="C17" s="246">
-        <v>1</v>
-      </c>
-      <c r="D17" s="246">
+      <c r="A17" s="244" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="245">
+        <v>1</v>
+      </c>
+      <c r="C17" s="245">
+        <v>1</v>
+      </c>
+      <c r="D17" s="245">
         <v>6</v>
       </c>
-      <c r="E17" s="246">
+      <c r="E17" s="245">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F17" s="248"/>
+      <c r="F17" s="247"/>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="249" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="307"/>
-      <c r="C18" s="307"/>
-      <c r="D18" s="284">
+      <c r="A18" s="248" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="309"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="286">
         <f>SUM(D8:D17)</f>
         <v>100</v>
       </c>
-      <c r="E18" s="250">
+      <c r="E18" s="249">
         <f>SUM(E8:E17)/D18 - E20*D20 - E19*D19</f>
         <v>0.89958123249299715</v>
       </c>
-      <c r="F18" s="251"/>
+      <c r="F18" s="250"/>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="252" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="253">
+      <c r="A19" s="251" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="252">
         <v>0.15</v>
       </c>
       <c r="E19">
         <v>0.25</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="252" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="253">
+      <c r="A20" s="251" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="252">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A21" s="300" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
+      <c r="A21" s="302" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="302"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="302"/>
+      <c r="E21" s="302"/>
+      <c r="F21" s="302"/>
+      <c r="G21" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="254" t="s">
+      <c r="A22" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="301"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="303"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="254" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="254" t="s">
+      <c r="A23" s="253" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="253" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="254" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="254" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="254" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="255" t="s">
+      <c r="C23" s="253" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="253" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="253" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="254" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A24" s="254" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="254">
+      <c r="A24" s="253" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="255">
+        <v>1</v>
+      </c>
+      <c r="C24" s="255">
+        <v>1</v>
+      </c>
+      <c r="D24" s="253">
         <v>8</v>
       </c>
-      <c r="E24" s="254">
+      <c r="E24" s="253">
         <f t="shared" ref="E24:E34" si="1">B24*C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="255"/>
+        <v>8</v>
+      </c>
+      <c r="F24" s="254"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="254" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="256"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="254">
+      <c r="A25" s="253" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="255">
+        <v>0.9</v>
+      </c>
+      <c r="C25" s="255">
+        <v>1</v>
+      </c>
+      <c r="D25" s="253">
         <v>16</v>
       </c>
-      <c r="E25" s="254">
+      <c r="E25" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="255"/>
+        <v>14.4</v>
+      </c>
+      <c r="F25" s="254" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="254" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="254">
+      <c r="A26" s="253" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="255">
+        <v>1</v>
+      </c>
+      <c r="C26" s="255">
+        <v>1</v>
+      </c>
+      <c r="D26" s="253">
         <v>8</v>
       </c>
-      <c r="E26" s="254">
+      <c r="E26" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="255"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="254"/>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="253" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="285">
+        <v>0.7</v>
+      </c>
+      <c r="C27" s="255">
+        <v>1</v>
+      </c>
+      <c r="D27" s="253">
+        <v>6</v>
+      </c>
+      <c r="E27" s="253">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F27" s="254" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="253" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="255">
+        <v>1</v>
+      </c>
+      <c r="C28" s="255">
+        <v>1</v>
+      </c>
+      <c r="D28" s="253">
+        <v>8</v>
+      </c>
+      <c r="E28" s="253">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F28" s="254"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="253" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="255">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="255">
+        <v>1</v>
+      </c>
+      <c r="D29" s="253">
+        <v>10</v>
+      </c>
+      <c r="E29" s="253">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="254" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="253" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="255">
+        <v>1</v>
+      </c>
+      <c r="C30" s="255">
+        <v>1</v>
+      </c>
+      <c r="D30" s="253">
+        <v>8</v>
+      </c>
+      <c r="E30" s="253">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F30" s="254"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="253" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="255">
+        <v>1</v>
+      </c>
+      <c r="C31" s="255">
+        <v>1</v>
+      </c>
+      <c r="D31" s="253">
+        <v>8</v>
+      </c>
+      <c r="E31" s="253">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F31" s="254"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="253" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="255">
+        <v>1</v>
+      </c>
+      <c r="C32" s="255">
+        <v>1</v>
+      </c>
+      <c r="D32" s="253">
+        <v>8</v>
+      </c>
+      <c r="E32" s="253">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F32" s="254"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="253" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="255">
+        <v>1</v>
+      </c>
+      <c r="C33" s="255">
+        <v>1</v>
+      </c>
+      <c r="D33" s="253">
+        <v>8</v>
+      </c>
+      <c r="E33" s="253">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F33" s="254" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="253" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="255">
+        <v>1</v>
+      </c>
+      <c r="C34" s="255">
+        <v>1</v>
+      </c>
+      <c r="D34" s="253">
+        <v>12</v>
+      </c>
+      <c r="E34" s="253">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F34" s="254"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="256" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="254">
-        <v>6</v>
-      </c>
-      <c r="E27" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="255"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="254" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="256"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="254">
-        <v>8</v>
-      </c>
-      <c r="E28" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="255"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="254" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="256"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="254">
-        <v>10</v>
-      </c>
-      <c r="E29" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="255"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="254" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="256"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="254">
-        <v>8</v>
-      </c>
-      <c r="E30" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="255"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="254" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="256"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="254">
-        <v>8</v>
-      </c>
-      <c r="E31" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="255"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="254" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" s="256"/>
-      <c r="C32" s="256"/>
-      <c r="D32" s="254">
-        <v>8</v>
-      </c>
-      <c r="E32" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="255"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="254" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" s="256"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="254">
-        <v>8</v>
-      </c>
-      <c r="E33" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="255"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="254" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" s="256"/>
-      <c r="C34" s="256"/>
-      <c r="D34" s="254">
-        <v>12</v>
-      </c>
-      <c r="E34" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="255"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="257" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="257"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258">
+      <c r="B35" s="256"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="257">
         <f>SUM(D24:D34)</f>
         <v>100</v>
       </c>
-      <c r="E35" s="259">
+      <c r="E35" s="258">
         <f>SUM(E24:E34)/D35 -E36*D36 -E37*D37-E38*D38</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="260"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F35" s="259"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="261" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="262"/>
-      <c r="D36" s="263">
+      <c r="A36" s="260" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="261"/>
+      <c r="D36" s="262">
         <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="261" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="264">
+      <c r="A37" s="260" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="263">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="261" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="265">
+      <c r="A38" s="260" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="264">
         <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="23.25">
-      <c r="A39" s="302" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="302"/>
-      <c r="C39" s="302"/>
-      <c r="D39" s="302"/>
-      <c r="E39" s="302"/>
-      <c r="F39" s="302"/>
+      <c r="A39" s="304" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="304"/>
+      <c r="C39" s="304"/>
+      <c r="D39" s="304"/>
+      <c r="E39" s="304"/>
+      <c r="F39" s="304"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="266" t="s">
+      <c r="A40" s="265" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="303"/>
-      <c r="C40" s="303"/>
-      <c r="D40" s="303"/>
-      <c r="E40" s="303"/>
-      <c r="F40" s="303"/>
+      <c r="B40" s="305"/>
+      <c r="C40" s="305"/>
+      <c r="D40" s="305"/>
+      <c r="E40" s="305"/>
+      <c r="F40" s="305"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="267" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="268" t="s">
+      <c r="A41" s="266" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="268" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="268" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="268" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="269" t="s">
+      <c r="C41" s="267" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="267" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="267" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="268" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="270" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="271"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="271">
+      <c r="A42" s="269" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="270"/>
+      <c r="C42" s="270"/>
+      <c r="D42" s="270">
         <v>12</v>
       </c>
-      <c r="E42" s="271">
+      <c r="E42" s="270">
         <f t="shared" ref="E42:E51" si="2">B42*C42*D42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="269"/>
+      <c r="F42" s="268"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="270" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
-      <c r="D43" s="271">
+      <c r="A43" s="269" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="270"/>
+      <c r="C43" s="270"/>
+      <c r="D43" s="270">
         <v>16</v>
       </c>
-      <c r="E43" s="271">
+      <c r="E43" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43" s="269"/>
+      <c r="F43" s="268"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="270" t="s">
-        <v>178</v>
-      </c>
-      <c r="B44" s="271"/>
-      <c r="C44" s="271"/>
-      <c r="D44" s="271">
+      <c r="A44" s="269" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="270"/>
+      <c r="C44" s="270"/>
+      <c r="D44" s="270">
         <v>8</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272"/>
+      <c r="F44" s="271"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="270" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="271"/>
-      <c r="C45" s="271"/>
-      <c r="D45" s="271">
+      <c r="A45" s="269" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="270"/>
+      <c r="C45" s="270"/>
+      <c r="D45" s="270">
         <v>12</v>
       </c>
-      <c r="E45" s="271">
+      <c r="E45" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F45" s="269"/>
+      <c r="F45" s="268"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="270" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="271"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="271">
+      <c r="A46" s="269" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="270"/>
+      <c r="C46" s="270"/>
+      <c r="D46" s="270">
         <v>10</v>
       </c>
-      <c r="E46" s="271">
+      <c r="E46" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="269"/>
+      <c r="F46" s="268"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="270" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="271"/>
-      <c r="C47" s="271"/>
-      <c r="D47" s="271">
+      <c r="A47" s="269" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="270"/>
+      <c r="C47" s="270"/>
+      <c r="D47" s="270">
         <v>14</v>
       </c>
-      <c r="E47" s="271">
+      <c r="E47" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="269"/>
+      <c r="F47" s="268"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="273" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="271"/>
-      <c r="C48" s="271"/>
-      <c r="D48" s="274">
+      <c r="A48" s="272" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="270"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="273">
         <v>6</v>
       </c>
-      <c r="E48" s="271">
+      <c r="E48" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="275"/>
+      <c r="F48" s="274"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="273" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="271"/>
-      <c r="C49" s="271"/>
-      <c r="D49" s="274">
+      <c r="A49" s="272" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="270"/>
+      <c r="C49" s="270"/>
+      <c r="D49" s="273">
         <v>8</v>
       </c>
-      <c r="E49" s="271">
+      <c r="E49" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="275"/>
+      <c r="F49" s="274"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="273" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="271"/>
-      <c r="C50" s="271"/>
-      <c r="D50" s="274">
+      <c r="A50" s="272" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="270"/>
+      <c r="C50" s="270"/>
+      <c r="D50" s="273">
         <v>6</v>
       </c>
-      <c r="E50" s="271">
+      <c r="E50" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="275"/>
+      <c r="F50" s="274"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="273" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="271"/>
-      <c r="C51" s="271"/>
-      <c r="D51" s="274">
+      <c r="A51" s="272" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="270"/>
+      <c r="C51" s="270"/>
+      <c r="D51" s="273">
         <v>8</v>
       </c>
-      <c r="E51" s="271">
+      <c r="E51" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F51" s="275"/>
+      <c r="F51" s="274"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="276" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="277"/>
-      <c r="C52" s="277"/>
-      <c r="D52" s="278">
+      <c r="A52" s="275" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="276"/>
+      <c r="C52" s="276"/>
+      <c r="D52" s="277">
         <f>SUM(D42:D51)</f>
         <v>100</v>
       </c>
-      <c r="E52" s="279">
+      <c r="E52" s="278">
         <f>SUM(E42:E51)/D52 - D53*E53  - D54*E54 - D55*E55</f>
         <v>0</v>
       </c>
-      <c r="F52" s="280"/>
+      <c r="F52" s="279"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="281" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="264">
+      <c r="A53" s="280" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="263">
         <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="281" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="264">
+      <c r="A54" s="280" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="263">
         <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="282" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="265">
+      <c r="A55" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="264">
         <v>0.05</v>
       </c>
     </row>
@@ -7930,7 +8134,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="288" t="s">
+      <c r="G2" s="290" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7943,11 +8147,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="288"/>
+      <c r="G3" s="290"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -7973,7 +8177,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -7986,7 +8190,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="65" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -7999,7 +8203,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -8012,7 +8216,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="65" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -8025,7 +8229,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -8038,7 +8242,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -8051,7 +8255,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="65" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -8064,7 +8268,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -8077,7 +8281,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="65" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -8090,7 +8294,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="65" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -8103,7 +8307,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="65" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8116,7 +8320,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="65" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -8129,7 +8333,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -8142,7 +8346,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="65" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -8155,7 +8359,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="65" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -8168,7 +8372,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -8181,7 +8385,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="65" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -8194,7 +8398,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -8207,7 +8411,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="65" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -8220,7 +8424,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="65" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -8233,7 +8437,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -8246,7 +8450,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -8343,10 +8547,10 @@
       <c r="D33" s="162"/>
       <c r="E33" s="162"/>
       <c r="F33" s="162"/>
-      <c r="H33" s="289" t="s">
+      <c r="H33" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="289"/>
+      <c r="I33" s="291"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
@@ -8595,7 +8799,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="91" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B50" s="138">
         <f>(B$31+B$47)/2</f>
